--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBcm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBcm.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A1895-8CAB-4EAA-B392-804277D435A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -437,11 +438,19 @@
     <t>UnitItem</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>distItemFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -619,16 +628,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,16 +644,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,9 +662,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -679,12 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -698,8 +695,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,6 +787,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -825,6 +839,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1000,554 +1031,554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>20</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>6</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>20</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>6</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>20</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>6</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>6</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>6</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>11</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>6</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>12</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="14">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>13</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="18">
         <v>16</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>6</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1566,152 +1597,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17" style="5" customWidth="1"/>
-    <col min="4" max="4" width="4" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="17.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="4" max="4" width="4" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBcm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBcm.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A1895-8CAB-4EAA-B392-804277D435A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="更新邏輯" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
   </si>
   <si>
     <t>最後更新人員</t>
@@ -324,134 +321,472 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>DeptCode Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdBcm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptCodeFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distCodeFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortDeptItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortDistItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室名稱簡寫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部名稱簡寫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findUnitManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDeptManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDistManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用 , N:未啟用</t>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitManager Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptManager Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistManager Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitManager %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptManager %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistManager %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDeptCode1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDistCode1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findUnitCode1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distItemFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>區部經理代號</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DeptCode Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdBcm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptCodeFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>distCodeFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShortDeptItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShortDistItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室名稱簡寫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部名稱簡寫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findUnitManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findDeptManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findDistManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:啟用 , N:未啟用</t>
-  </si>
-  <si>
-    <t>Enable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>啟用記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitManager Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptManager Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistManager Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitManager %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptManager %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistManager %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitCode %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findDeptCode1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findDistCode1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findUnitCode1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>distItemFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistItem %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <r>
+      <t>CdBcm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">分公司資料檔，對主管已調派但在職檔尚未修改作法：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人工以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[L6085-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單位及主管代號查詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">修改
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在新在職檔未來時避免覆蓋已人工修改資料
+處理邏輯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                                           
+UnitManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單位經理代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+DeptManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部室經理代號
+兩欄若由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CdEmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日轉出的與前日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cdEmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">產生的相同
+且
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CdBcm.LastUpdateEmpNo &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">批次經辦
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LastUpdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後更新日期時間在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日內
+則不要更新此筆資料
+若由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CdEmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日轉出的與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CdEmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">的資料一致，則更新此筆
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LastUpdateEmpNo=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">批次經辦
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LastUpdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後更新日期時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">新的日期時間
+</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,6 +887,26 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -628,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,12 +1046,15 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,23 +1145,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -839,23 +1180,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1031,11 +1355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1379,7 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1107,7 +1431,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7"/>
@@ -1120,7 +1444,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7"/>
@@ -1166,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>20</v>
@@ -1179,7 +1503,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1187,10 +1511,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>22</v>
@@ -1208,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>20</v>
@@ -1221,7 +1545,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1229,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>22</v>
@@ -1248,10 +1572,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>20</v>
@@ -1269,10 +1593,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>22</v>
@@ -1288,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>20</v>
@@ -1307,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>20</v>
@@ -1326,10 +1650,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>20</v>
@@ -1345,10 +1669,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>20</v>
@@ -1364,10 +1688,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>20</v>
@@ -1383,10 +1707,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>20</v>
@@ -1398,7 +1722,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1465,10 +1789,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>20</v>
@@ -1597,10 +1921,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
@@ -1627,134 +1951,134 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1762,4 +2086,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="104" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBcm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBcm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685E8D0E-DED2-49E4-A70D-9D75E421C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -173,9 +174,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -781,11 +779,14 @@
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1041,20 +1042,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,9 +1071,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1110,9 +1111,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,7 +1148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,7 +1183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1355,11 +1356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1374,12 +1375,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1389,8 +1390,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
@@ -1402,10 +1403,10 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1415,10 +1416,10 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="11"/>
       <c r="E4" s="7"/>
@@ -1426,12 +1427,12 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7"/>
@@ -1439,12 +1440,12 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7"/>
@@ -1452,10 +1453,10 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="7"/>
@@ -1490,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>20</v>
@@ -1503,7 +1504,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1511,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>22</v>
@@ -1532,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>20</v>
@@ -1545,7 +1546,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1553,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>22</v>
@@ -1572,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>20</v>
@@ -1593,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>22</v>
@@ -1612,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>20</v>
@@ -1631,10 +1632,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>20</v>
@@ -1650,10 +1651,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>20</v>
@@ -1669,10 +1670,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>20</v>
@@ -1688,10 +1689,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>20</v>
@@ -1707,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>20</v>
@@ -1722,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1736,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1749,10 +1750,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>20</v>
@@ -1770,13 +1771,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="D23" s="14" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1789,10 +1790,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>20</v>
@@ -1921,7 +1922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1951,134 +1952,134 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2089,10 +2090,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2100,9 +2101,9 @@
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>93</v>
+    <row r="1" spans="1:1" ht="291.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
